--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyLoanBal.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/DailyLoanBal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA368E2-43A8-4B74-897C-1B44E621C707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCBBD05-AF9C-47D0-B4F5-075B12B97915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,15 +236,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸
-990: 催收款項</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctCode</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -261,14 +252,6 @@
   </si>
   <si>
     <t>額度業務科目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -334,12 +317,30 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0.一般變動日 1.最後變動日 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND DataDate &lt;= </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:一般變動日
+1:最後變動日 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1072,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1094,7 @@
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>37</v>
@@ -1147,7 +1148,7 @@
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="19"/>
@@ -1277,7 +1278,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>5</v>
       </c>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>25</v>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="43" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.3">
@@ -1364,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
@@ -1377,7 +1378,7 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="42" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1385,10 +1386,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
@@ -1446,10 +1447,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>14</v>
@@ -1461,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1469,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>14</v>
@@ -1484,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1617,13 +1618,13 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1650,24 +1651,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
